--- a/ANN_Stopping_Grid/Data3/Search/Optim Graphs/hn-e.xlsx
+++ b/ANN_Stopping_Grid/Data3/Search/Optim Graphs/hn-e.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Search\Optim Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAF592D-4ED6-43B2-971E-F056595035B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA2CE72-EA92-48C2-B3C5-0CE700A9F248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A898F730-E1F5-4713-A0C4-BB339A4374D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$37</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve"> 2-2</t>
   </si>
@@ -145,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 20-20</t>
+  </si>
+  <si>
+    <t>MA</t>
   </si>
 </sst>
 </file>
@@ -1727,6 +1726,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3242288256983809E-2"/>
+              <c:y val="0.37225602730551377"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1843,7 +1850,553 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v> 2-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 2-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 2-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 2-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 2-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 2-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 4-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 4-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 4-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 4-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 4-16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 4-20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 8-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 8-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 8-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 8-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 8-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 8-20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 12-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 12-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 12-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 12-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 12-16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 12-20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v> 16-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v> 16-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v> 16-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v> 16-12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v> 16-16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v> 16-20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v> 20-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v> 20-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v> 20-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> 20-12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v> 20-16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v> 20-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>146.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148.46153846153845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>142.73333333333332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.64705882352942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135.84210526315789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.8095238095238</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>122.30434782608695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>119.04166666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117.88461538461539</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115.81481481481481</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>112.92857142857143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>111.24137931034483</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>110.06666666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>109.25806451612904</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>107.65625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105.39393939393939</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>104.88235294117646</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>103.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101.88888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-135E-4758-96E5-5C5AF107D586}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1547743008"/>
+        <c:axId val="1953875776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1547743008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953875776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1953875776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1547743008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2386,20 +2939,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>347660</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461961</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>101457</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165734</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2419,6 +3488,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266723D2-2DED-4222-9271-A089EFDE444C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2724,15 +3829,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF82D9BA-A585-455E-9529-E1DAF1252A37}">
-  <dimension ref="B2:D37"/>
+  <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2742,8 +3852,15 @@
       <c r="D2">
         <v>6.8401322589586302E-3</v>
       </c>
+      <c r="E2">
+        <f>C2/F2</f>
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -2753,8 +3870,15 @@
       <c r="D3">
         <v>6.60702798356808E-3</v>
       </c>
+      <c r="E3">
+        <f>SUM(C2:C3)/F3</f>
+        <v>149</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2764,8 +3888,15 @@
       <c r="D4">
         <v>8.4377255416923994E-3</v>
       </c>
+      <c r="E4">
+        <f>SUM(C2:C5)/F4</f>
+        <v>164</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2775,8 +3906,15 @@
       <c r="D5">
         <v>5.69055560541676E-3</v>
       </c>
+      <c r="E5">
+        <f>SUM(C2:C5)/F5</f>
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2786,8 +3924,15 @@
       <c r="D6">
         <v>6.0626351022722499E-3</v>
       </c>
+      <c r="E6">
+        <f>SUM(C2:C6)/F6</f>
+        <v>127.8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2797,8 +3942,15 @@
       <c r="D7">
         <v>5.82504258778355E-3</v>
       </c>
+      <c r="E7">
+        <f>SUM(C2:C7)/F7</f>
+        <v>134</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2808,8 +3960,15 @@
       <c r="D8">
         <v>6.9966388418101402E-3</v>
       </c>
+      <c r="E8">
+        <f>SUM(C2:C8)/F8</f>
+        <v>121.14285714285714</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2819,8 +3978,15 @@
       <c r="D9">
         <v>5.2764717705526404E-3</v>
       </c>
+      <c r="E9">
+        <f>SUM(C2:C9)/F9</f>
+        <v>135.625</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2830,8 +3996,15 @@
       <c r="D10">
         <v>4.5664557090667997E-3</v>
       </c>
+      <c r="E10">
+        <f>SUM(C2:C10)/F10</f>
+        <v>137.44444444444446</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -2841,8 +4014,15 @@
       <c r="D11">
         <v>5.8836526417089504E-3</v>
       </c>
+      <c r="E11">
+        <f>SUM(C2:C11)/F11</f>
+        <v>136.9</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -2852,8 +4032,15 @@
       <c r="D12">
         <v>4.6448437869407999E-3</v>
       </c>
+      <c r="E12">
+        <f>SUM(C2:C12)/F12</f>
+        <v>150.54545454545453</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -2863,8 +4050,15 @@
       <c r="D13">
         <v>5.7613147483686197E-3</v>
       </c>
+      <c r="E13">
+        <f>SUM(C2:C13)/F13</f>
+        <v>146.33333333333334</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -2874,8 +4068,15 @@
       <c r="D14">
         <v>5.4243511448504598E-3</v>
       </c>
+      <c r="E14">
+        <f>SUM(C2:C14)/F14</f>
+        <v>148.46153846153845</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2885,8 +4086,15 @@
       <c r="D15">
         <v>5.83737691531982E-3</v>
       </c>
+      <c r="E15">
+        <f>SUM(C2:C15)/F15</f>
+        <v>144.5</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -2896,8 +4104,15 @@
       <c r="D16">
         <v>4.6576922088457798E-3</v>
       </c>
+      <c r="E16">
+        <f>SUM(C2:C16)/F16</f>
+        <v>142.73333333333332</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2907,8 +4122,15 @@
       <c r="D17">
         <v>5.8581503330335603E-3</v>
       </c>
+      <c r="E17">
+        <f>SUM(C2:C17)/F17</f>
+        <v>139.5</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -2918,8 +4140,15 @@
       <c r="D18">
         <v>5.6040816379689697E-3</v>
       </c>
+      <c r="E18">
+        <f>SUM(C2:C18)/F18</f>
+        <v>136.64705882352942</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -2929,8 +4158,15 @@
       <c r="D19">
         <v>5.97912459114135E-3</v>
       </c>
+      <c r="E19">
+        <f>SUM(C2:C19)/F19</f>
+        <v>131.66666666666666</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -2940,8 +4176,15 @@
       <c r="D20">
         <v>5.0769148050533999E-3</v>
       </c>
+      <c r="E20">
+        <f>SUM(C2:C20)/F20</f>
+        <v>135.84210526315789</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -2951,8 +4194,15 @@
       <c r="D21">
         <v>5.0226630724579798E-3</v>
       </c>
+      <c r="E21">
+        <f>SUM(C2:C21)/F21</f>
+        <v>133</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +4212,15 @@
       <c r="D22">
         <v>5.2954924464699701E-3</v>
       </c>
+      <c r="E22">
+        <f>SUM(C2:C22)/F22</f>
+        <v>128.8095238095238</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -2973,8 +4230,15 @@
       <c r="D23">
         <v>5.5087889441122499E-3</v>
       </c>
+      <c r="E23">
+        <f>SUM(C2:C23)/F23</f>
+        <v>125.18181818181819</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -2984,8 +4248,15 @@
       <c r="D24">
         <v>5.3326420917270299E-3</v>
       </c>
+      <c r="E24">
+        <f>SUM(C2:C24)/F24</f>
+        <v>122.30434782608695</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -2995,8 +4266,15 @@
       <c r="D25">
         <v>6.4242799515026898E-3</v>
       </c>
+      <c r="E25">
+        <f>SUM(C2:C25)/F25</f>
+        <v>119.04166666666667</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -3006,8 +4284,15 @@
       <c r="D26">
         <v>5.8736511088777997E-3</v>
       </c>
+      <c r="E26">
+        <f>SUM(C2:C26)/F26</f>
+        <v>120.24</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -3017,8 +4302,15 @@
       <c r="D27">
         <v>4.8431665015184503E-3</v>
       </c>
+      <c r="E27">
+        <f>SUM(C2:C27)/F27</f>
+        <v>117.88461538461539</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -3028,8 +4320,15 @@
       <c r="D28">
         <v>5.2332801663255201E-3</v>
       </c>
+      <c r="E28">
+        <f>SUM(C2:C28)/F28</f>
+        <v>115.81481481481481</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -3039,8 +4338,15 @@
       <c r="D29">
         <v>5.8398173787243398E-3</v>
       </c>
+      <c r="E29">
+        <f>SUM(C2:C29)/F29</f>
+        <v>112.92857142857143</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -3050,8 +4356,15 @@
       <c r="D30">
         <v>4.8088595040684601E-3</v>
       </c>
+      <c r="E30">
+        <f>SUM(C2:C30)/F30</f>
+        <v>111.24137931034483</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -3061,8 +4374,15 @@
       <c r="D31">
         <v>5.5478364749919204E-3</v>
       </c>
+      <c r="E31">
+        <f>SUM(C2:C31)/F31</f>
+        <v>110.06666666666666</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -3072,8 +4392,15 @@
       <c r="D32">
         <v>5.8121481468483699E-3</v>
       </c>
+      <c r="E32">
+        <f>SUM(C2:C32)/F32</f>
+        <v>109.25806451612904</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -3083,8 +4410,15 @@
       <c r="D33">
         <v>5.4971182867066303E-3</v>
       </c>
+      <c r="E33">
+        <f>SUM(C2:C33)/F33</f>
+        <v>107.65625</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -3094,8 +4428,15 @@
       <c r="D34">
         <v>5.8554768076593501E-3</v>
       </c>
+      <c r="E34">
+        <f>SUM(C2:C34)/F34</f>
+        <v>105.39393939393939</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -3105,8 +4446,15 @@
       <c r="D35">
         <v>5.00936728057675E-3</v>
       </c>
+      <c r="E35">
+        <f>SUM(C2:C35)/F35</f>
+        <v>104.88235294117646</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -3116,8 +4464,15 @@
       <c r="D36">
         <v>5.8924723728857103E-3</v>
       </c>
+      <c r="E36">
+        <f>SUM(C2:C36)/F36</f>
+        <v>103.6</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -3126,6 +4481,13 @@
       </c>
       <c r="D37">
         <v>6.2431049379930601E-3</v>
+      </c>
+      <c r="E37">
+        <f>SUM(C2:C37)/F37</f>
+        <v>101.88888888888889</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
